--- a/biology/Zoologie/Eupatagus/Eupatagus.xlsx
+++ b/biology/Zoologie/Eupatagus/Eupatagus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupatagus est un genre d'oursins, le seul de la famille des Eupatagidae, au sein de l'ordre des Spatangoida.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins irréguliers dont la bouche et l'anus se sont déplacés de leurs pôles pour former un « avant » et un « arrière ». La bouche se situe donc dans le premier quart de la face orale, et l'anus se trouve à l'opposé, tourné vers l'arrière. La coquille (appelée « test ») s'est également allongée dans ce sens antéro-postérieur.
 Le disque apical est ethmolytique, entouré de pétales formant des lignes arquées, s'effilant distalement, avec des zones perradiales séparant les colonnes de paires de pores plus larges que ces dernières.
@@ -520,8 +534,8 @@
 Les plaques sternales sont courtes et triangulaires.
 Les plaques épisternales sont opposées, et fortement indentées vers l'arrière ; la 6e plaque ambulacraire est allongée latéralement et s'indente dans l'ambulacre postérieur.
 La première paire de plaques post-épisternales forme également des paires symétriques opposées.
-Le fasciole subanal est typiquement développe, en forme d'écu[1].
-Cette famille semble être apparue à l'Éocène[1].
+Le fasciole subanal est typiquement développe, en forme d'écu.
+Cette famille semble être apparue à l'Éocène.
 </t>
         </is>
       </c>
@@ -550,9 +564,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (9 juin 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (9 juin 2014) :
 genre Eupatagus L. Agassiz, in Agassiz &amp; Desor, 1847
 Eupatagus alabamensis Cooke, 1942
 Eupatagus alatus Arnold &amp; H. L. Clark, 1927
